--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1044">
   <si>
     <t>anchor score</t>
   </si>
@@ -334,778 +334,778 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>responsible</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>bbc</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>disgrace</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>reached</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>bringing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>lady</t>
+  </si>
+  <si>
+    <t>nyc</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>household</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>ins</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ceo</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>wearing</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>partners</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>brad</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>responsible</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>solutions</t>
-  </si>
-  <si>
-    <t>ship</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>bbc</t>
-  </si>
-  <si>
-    <t>inventory</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>disgrace</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>reached</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>infection</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>bringing</t>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>focused</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>ladies</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>thankful</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>lady</t>
-  </si>
-  <si>
-    <t>nyc</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>hits</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>inc</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>household</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>la</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>ins</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ceo</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>wearing</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>partners</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>garden</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>brad</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>focused</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>ladies</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>thankful</t>
   </si>
   <si>
     <t>vital</t>
@@ -3511,10 +3511,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4193,7 +4193,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4243,7 +4243,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -4343,7 +4343,7 @@
         <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -4393,7 +4393,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -4443,7 +4443,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -4593,7 +4593,7 @@
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K23">
         <v>0.9545454545454546</v>
@@ -4643,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K24">
         <v>0.9444444444444444</v>
@@ -4793,7 +4793,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K27">
         <v>0.9230769230769231</v>
@@ -4843,7 +4843,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K28">
         <v>0.9148936170212766</v>
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K31">
         <v>0.9090909090909091</v>
@@ -5043,7 +5043,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K32">
         <v>0.9090909090909091</v>
@@ -5093,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K33">
         <v>0.9</v>
@@ -5193,7 +5193,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K35">
         <v>0.8976377952755905</v>
@@ -5293,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K37">
         <v>0.8888888888888888</v>
@@ -5443,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K40">
         <v>0.875</v>
@@ -5493,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K41">
         <v>0.875</v>
@@ -5593,7 +5593,7 @@
         <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K43">
         <v>0.8666666666666667</v>
@@ -5643,7 +5643,7 @@
         <v>7</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K44">
         <v>0.8571428571428571</v>
@@ -5693,7 +5693,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K45">
         <v>0.8571428571428571</v>
@@ -5743,7 +5743,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K46">
         <v>0.8571428571428571</v>
@@ -5893,7 +5893,7 @@
         <v>4</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K49">
         <v>0.85</v>
@@ -5993,7 +5993,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K51">
         <v>0.8461538461538461</v>
@@ -6043,7 +6043,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K52">
         <v>0.8421052631578947</v>
@@ -6143,7 +6143,7 @@
         <v>2</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K54">
         <v>0.8333333333333334</v>
@@ -6193,7 +6193,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K55">
         <v>0.8333333333333334</v>
@@ -6343,7 +6343,7 @@
         <v>2</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K58">
         <v>0.8333333333333334</v>
@@ -6393,7 +6393,7 @@
         <v>2</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K59">
         <v>0.8333333333333334</v>
@@ -6443,7 +6443,7 @@
         <v>2</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K60">
         <v>0.8333333333333334</v>
@@ -6543,7 +6543,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K62">
         <v>0.8214285714285714</v>
@@ -6593,7 +6593,7 @@
         <v>13</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K63">
         <v>0.8205128205128205</v>
@@ -6643,7 +6643,7 @@
         <v>18</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K64">
         <v>0.8181818181818182</v>
@@ -6693,7 +6693,7 @@
         <v>14</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K65">
         <v>0.8156028368794326</v>
@@ -6743,7 +6743,7 @@
         <v>5</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K66">
         <v>0.8095238095238095</v>
@@ -6843,7 +6843,7 @@
         <v>8</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K68">
         <v>0.8</v>
@@ -6893,7 +6893,7 @@
         <v>14</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K69">
         <v>0.8</v>
@@ -6943,7 +6943,7 @@
         <v>3</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K70">
         <v>0.8</v>
@@ -7043,7 +7043,7 @@
         <v>3</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K72">
         <v>0.8</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K75">
         <v>0.7777777777777778</v>
@@ -7343,28 +7343,28 @@
         <v>3</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>106</v>
+        <v>329</v>
       </c>
       <c r="K78">
-        <v>0.7665198237885462</v>
+        <v>0.75</v>
       </c>
       <c r="L78">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="M78">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="N78">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -7393,16 +7393,16 @@
         <v>3</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K79">
         <v>0.75</v>
       </c>
       <c r="L79">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M79">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -7443,16 +7443,16 @@
         <v>3</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K80">
         <v>0.75</v>
       </c>
       <c r="L80">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M80">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -7493,16 +7493,16 @@
         <v>22</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K81">
         <v>0.75</v>
       </c>
       <c r="L81">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M81">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -7514,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -7543,28 +7543,28 @@
         <v>13</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>334</v>
+        <v>63</v>
       </c>
       <c r="K82">
         <v>0.75</v>
       </c>
       <c r="L82">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M82">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -7593,7 +7593,7 @@
         <v>10</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>63</v>
+        <v>333</v>
       </c>
       <c r="K83">
         <v>0.75</v>
@@ -7602,16 +7602,16 @@
         <v>6</v>
       </c>
       <c r="M83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N83">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -7643,7 +7643,7 @@
         <v>7</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K84">
         <v>0.75</v>
@@ -7693,16 +7693,16 @@
         <v>7</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K85">
-        <v>0.75</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L85">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="M85">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -7714,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -7793,7 +7793,7 @@
         <v>15</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K87">
         <v>0.7272727272727273</v>
@@ -7943,7 +7943,7 @@
         <v>4</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K90">
         <v>0.7222222222222222</v>
@@ -7993,7 +7993,7 @@
         <v>12</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K91">
         <v>0.7222222222222222</v>
@@ -8043,7 +8043,7 @@
         <v>8</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K92">
         <v>0.7142857142857143</v>
@@ -8093,7 +8093,7 @@
         <v>12</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K93">
         <v>0.7142857142857143</v>
@@ -8143,7 +8143,7 @@
         <v>4</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K94">
         <v>0.7142857142857143</v>
@@ -8193,7 +8193,7 @@
         <v>4</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K95">
         <v>0.7142857142857143</v>
@@ -8293,7 +8293,7 @@
         <v>8</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K97">
         <v>0.7</v>
@@ -8393,7 +8393,7 @@
         <v>21</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K99">
         <v>0.696969696969697</v>
@@ -8443,7 +8443,7 @@
         <v>13</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K100">
         <v>0.6956521739130435</v>
@@ -8472,28 +8472,28 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1846153846153846</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C101">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>186</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K101">
         <v>0.6923076923076923</v>
@@ -8522,13 +8522,13 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -8540,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K102">
         <v>0.6875</v>
@@ -8578,22 +8578,22 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>5</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K103">
         <v>0.6862745098039216</v>
@@ -8625,25 +8625,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D104">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E104">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F104">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K104">
         <v>0.6818181818181818</v>
@@ -8675,22 +8675,22 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>97</v>
@@ -8743,7 +8743,7 @@
         <v>5</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K106">
         <v>0.6666666666666666</v>
@@ -8778,22 +8778,22 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
         <v>5</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K107">
         <v>0.6666666666666666</v>
@@ -8828,22 +8828,22 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>5</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K108">
         <v>0.6666666666666666</v>
@@ -8878,22 +8878,22 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
         <v>5</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K109">
         <v>0.6666666666666666</v>
@@ -8928,13 +8928,13 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E110">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F110">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
@@ -8943,7 +8943,7 @@
         <v>5</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K110">
         <v>0.6666666666666666</v>
@@ -8978,13 +8978,13 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E111">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F111">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
@@ -9028,16 +9028,16 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>5</v>
@@ -9072,13 +9072,13 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.1666666666666667</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -9090,10 +9090,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K113">
         <v>0.6666666666666666</v>
@@ -9122,13 +9122,13 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.1466666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C114">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D114">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -9140,10 +9140,10 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K114">
         <v>0.6666666666666666</v>
@@ -9175,10 +9175,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -9190,10 +9190,10 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K115">
         <v>0.6666666666666666</v>
@@ -9243,7 +9243,7 @@
         <v>6</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K116">
         <v>0.6666666666666666</v>
@@ -9328,22 +9328,22 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>6</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K118">
         <v>0.6666666666666666</v>
@@ -9378,13 +9378,13 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E119">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F119">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
@@ -9425,25 +9425,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E120">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F120">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K120">
         <v>0.6666666666666666</v>
@@ -9475,25 +9475,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K121">
         <v>0.6666666666666666</v>
@@ -9543,7 +9543,7 @@
         <v>6</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K122">
         <v>0.6571428571428571</v>
@@ -9572,13 +9572,13 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -9590,31 +9590,31 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>142</v>
+        <v>358</v>
       </c>
       <c r="K123">
-        <v>0.6503067484662577</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L123">
-        <v>212</v>
+        <v>9</v>
       </c>
       <c r="M123">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="N123">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O123">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>114</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -9622,25 +9622,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.1333333333333333</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>359</v>
@@ -9672,49 +9672,49 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.1290322580645161</v>
+        <v>0.125</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="E125">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>360</v>
+        <v>175</v>
       </c>
       <c r="K125">
-        <v>0.6428571428571429</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L125">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M125">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N125">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q125">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -9725,10 +9725,10 @@
         <v>0.125</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -9740,31 +9740,31 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="K126">
-        <v>0.6410256410256411</v>
+        <v>0.6404199475065617</v>
       </c>
       <c r="L126">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="M126">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="N126">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O126">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P126" t="b">
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>14</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -9775,46 +9775,46 @@
         <v>0.125</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>254</v>
+        <v>102</v>
       </c>
       <c r="K127">
-        <v>0.6404199475065617</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L127">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="M127">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="N127">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="O127">
-        <v>0.01000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="P127" t="b">
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>137</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -9825,46 +9825,46 @@
         <v>0.125</v>
       </c>
       <c r="C128">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="E128">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F128">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>102</v>
+        <v>360</v>
       </c>
       <c r="K128">
         <v>0.6363636363636364</v>
       </c>
       <c r="L128">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M128">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N128">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O128">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q128">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -9878,13 +9878,13 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E129">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F129">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
@@ -9893,28 +9893,28 @@
         <v>7</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>361</v>
+        <v>155</v>
       </c>
       <c r="K129">
-        <v>0.6363636363636364</v>
+        <v>0.6350877192982456</v>
       </c>
       <c r="L129">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="M129">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="N129">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O129">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q129">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -9928,43 +9928,43 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>7</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K130">
-        <v>0.6350877192982456</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L130">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="M130">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="N130">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O130">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P130" t="b">
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -9972,49 +9972,49 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.125</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K131">
-        <v>0.6296296296296297</v>
+        <v>0.625</v>
       </c>
       <c r="L131">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="M131">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N131">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="O131">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="P131" t="b">
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -10022,28 +10022,28 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.1176470588235294</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E132">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="K132">
         <v>0.625</v>
@@ -10052,16 +10052,16 @@
         <v>5</v>
       </c>
       <c r="M132">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N132">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O132">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -10072,13 +10072,13 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -10090,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>362</v>
@@ -10128,16 +10128,16 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
         <v>8</v>
@@ -10146,13 +10146,13 @@
         <v>363</v>
       </c>
       <c r="K134">
-        <v>0.625</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="L134">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="M134">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="N134">
         <v>1</v>
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -10178,16 +10178,16 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>8</v>
@@ -10222,28 +10222,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K136">
         <v>0.609375</v>
@@ -10272,25 +10272,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.109375</v>
+        <v>0.1</v>
       </c>
       <c r="C137">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>226</v>
+        <v>3</v>
       </c>
       <c r="E137">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F137">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>59</v>
@@ -10328,13 +10328,13 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E138">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F138">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
@@ -10378,13 +10378,13 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E139">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F139">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
@@ -10428,13 +10428,13 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E140">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F140">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
@@ -10472,25 +10472,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>365</v>
@@ -10522,28 +10522,28 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E142">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F142">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K142">
         <v>0.5869565217391305</v>
@@ -10578,16 +10578,16 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>10</v>
@@ -10678,13 +10678,13 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E145">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F145">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
@@ -10728,13 +10728,13 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E146">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F146">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
@@ -10778,16 +10778,16 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>10</v>
@@ -10828,13 +10828,13 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E148">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F148">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
@@ -10878,16 +10878,16 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
         <v>10</v>
@@ -10922,25 +10922,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.09090909090909091</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D150">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="E150">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F150">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>372</v>
@@ -10972,28 +10972,28 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K151">
         <v>0.5581395348837209</v>
@@ -11022,25 +11022,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.08771929824561403</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C152">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>373</v>
@@ -11128,16 +11128,16 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
         <v>11</v>
@@ -11178,22 +11178,22 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
         <v>11</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K155">
         <v>0.55</v>
@@ -11222,25 +11222,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>375</v>
@@ -11272,25 +11272,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F157">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>376</v>
@@ -11328,16 +11328,16 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158">
         <v>12</v>
@@ -11378,16 +11378,16 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
         <v>12</v>
@@ -11428,13 +11428,13 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E160">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F160">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
@@ -11472,25 +11472,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.07692307692307693</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>87</v>
@@ -11522,25 +11522,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E162">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F162">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>379</v>
@@ -11572,25 +11572,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.07317073170731707</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="E163">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F163">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>380</v>
@@ -11628,13 +11628,13 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E164">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F164">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
@@ -11672,25 +11672,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="E165">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="F165">
-        <v>0.01000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>382</v>
@@ -11722,25 +11722,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E166">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="F166">
-        <v>0.5</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>383</v>
@@ -11772,25 +11772,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C167">
         <v>2</v>
       </c>
       <c r="D167">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>384</v>
@@ -11822,25 +11822,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E168">
-        <v>0.33</v>
+        <v>0.88</v>
       </c>
       <c r="F168">
-        <v>0.6699999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>385</v>
@@ -11875,22 +11875,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>386</v>
@@ -11928,13 +11928,13 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E170">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F170">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
@@ -11943,7 +11943,7 @@
         <v>14</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K170">
         <v>0.5</v>
@@ -11972,25 +11972,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E171">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F171">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>76</v>
@@ -12022,25 +12022,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E172">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F172">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>387</v>
@@ -12078,16 +12078,16 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
         <v>15</v>
@@ -12122,25 +12122,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D174">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E174">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>389</v>
@@ -12172,13 +12172,13 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -12190,10 +12190,10 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K175">
         <v>0.5</v>
@@ -12225,10 +12225,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -12240,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>390</v>
@@ -12275,22 +12275,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>391</v>
@@ -12378,13 +12378,13 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E179">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F179">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
@@ -12428,16 +12428,16 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
         <v>16</v>
@@ -12478,13 +12478,13 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E181">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F181">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
@@ -12528,13 +12528,13 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E182">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F182">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
@@ -12572,25 +12572,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E183">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F183">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>395</v>
@@ -12622,28 +12622,28 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F184">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K184">
         <v>0.5</v>
@@ -12678,16 +12678,16 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
         <v>17</v>
@@ -12722,25 +12722,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
         <v>2</v>
       </c>
       <c r="E186">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>397</v>
@@ -12772,7 +12772,7 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -12790,7 +12790,7 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>398</v>
@@ -12822,25 +12822,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>399</v>
@@ -12878,16 +12878,16 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
         <v>18</v>
@@ -12928,13 +12928,13 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E190">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F190">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
@@ -12972,25 +12972,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.05263157894736842</v>
+        <v>0.05038759689922481</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D191">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E191">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>402</v>
@@ -13022,28 +13022,28 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E192">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F192">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K192">
         <v>0.4705882352941176</v>
@@ -13072,25 +13072,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.05038759689922481</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C193">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>490</v>
+        <v>21</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>403</v>
@@ -13122,25 +13122,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>404</v>
@@ -13172,25 +13172,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
+        <v>3</v>
+      </c>
+      <c r="E195">
+        <v>0.67</v>
+      </c>
+      <c r="F195">
+        <v>0.33</v>
+      </c>
+      <c r="G195" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195">
         <v>22</v>
-      </c>
-      <c r="E195">
-        <v>0.95</v>
-      </c>
-      <c r="F195">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G195" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195">
-        <v>21</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>405</v>
@@ -13222,28 +13222,28 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K196">
         <v>0.4545454545454545</v>
@@ -13278,16 +13278,16 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E197">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
         <v>22</v>
@@ -13322,25 +13322,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.04347826086956522</v>
+        <v>0.04</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E198">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F198">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>407</v>
@@ -13372,28 +13372,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.04347826086956522</v>
+        <v>0.04</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K199">
         <v>0.4545454545454545</v>
@@ -13425,22 +13425,22 @@
         <v>0.04</v>
       </c>
       <c r="C200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E200">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F200">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>408</v>
@@ -13472,25 +13472,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.04</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D201">
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>409</v>
@@ -13522,25 +13522,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E202">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F202">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>410</v>
@@ -13572,28 +13572,28 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.03896103896103896</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K203">
         <v>0.4444444444444444</v>
@@ -13622,25 +13622,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E204">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>411</v>
@@ -13672,25 +13672,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E205">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F205">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>412</v>
@@ -13728,16 +13728,16 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
         <v>26</v>
@@ -13778,22 +13778,22 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E207">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
         <v>26</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K207">
         <v>0.4347826086956522</v>
@@ -13822,25 +13822,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="E208">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F208">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>414</v>
@@ -13872,7 +13872,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13890,7 +13890,7 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>101</v>
@@ -13922,7 +13922,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13940,7 +13940,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>415</v>
@@ -13972,7 +13972,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -13990,10 +13990,10 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K211">
         <v>0.4285714285714285</v>
@@ -14022,25 +14022,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.03333333333333333</v>
+        <v>0.03246753246753246</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="E212">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F212">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>416</v>
@@ -14072,7 +14072,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -14090,7 +14090,7 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>417</v>
@@ -14122,25 +14122,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.03246753246753246</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C214">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="E214">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>418</v>
@@ -14172,25 +14172,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.03225806451612903</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>419</v>
@@ -14222,25 +14222,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>420</v>
@@ -14272,13 +14272,13 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.03174603174603174</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E217">
         <v>0.9399999999999999</v>
@@ -14290,7 +14290,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>421</v>
@@ -14322,25 +14322,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0303030303030303</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E218">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F218">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>422</v>
@@ -14378,16 +14378,16 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E219">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
         <v>35</v>
@@ -14428,13 +14428,13 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E220">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F220">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
@@ -14472,25 +14472,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>425</v>
@@ -14522,25 +14522,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E222">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>78</v>
@@ -14572,25 +14572,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E223">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F223">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>426</v>
@@ -14622,7 +14622,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14640,7 +14640,7 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>427</v>
@@ -14672,25 +14672,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E225">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>428</v>
@@ -14722,25 +14722,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>429</v>
@@ -14772,25 +14772,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>430</v>
@@ -14822,25 +14822,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>75</v>
@@ -14872,25 +14872,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E229">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F229">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>431</v>
@@ -14922,7 +14922,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14940,10 +14940,10 @@
         <v>0</v>
       </c>
       <c r="H230">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K230">
         <v>0.396551724137931</v>
@@ -14972,25 +14972,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E231">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F231">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>432</v>
@@ -15022,25 +15022,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>433</v>
@@ -15072,28 +15072,28 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.02222222222222222</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E233">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F233">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K233">
         <v>0.3888888888888889</v>
@@ -15122,25 +15122,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.02173913043478261</v>
+        <v>0.02</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E234">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F234">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>434</v>
@@ -15172,25 +15172,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.02083333333333333</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E235">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F235">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>435</v>
@@ -15222,25 +15222,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.02</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E236">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F236">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>436</v>
@@ -15272,25 +15272,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0196078431372549</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E237">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>437</v>
@@ -15322,25 +15322,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E238">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F238">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>438</v>
@@ -15378,22 +15378,22 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
         <v>54</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K239">
         <v>0.375</v>
@@ -15472,25 +15472,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E241">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F241">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>440</v>
@@ -15522,7 +15522,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01818181818181818</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15540,7 +15540,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>441</v>
@@ -15572,7 +15572,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01785714285714286</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15590,10 +15590,10 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K243">
         <v>0.375</v>
@@ -15622,7 +15622,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01724137931034483</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15640,7 +15640,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>442</v>
@@ -15672,25 +15672,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01666666666666667</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E245">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F245">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>443</v>
@@ -15722,28 +15722,28 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01538461538461539</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E246">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F246">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K246">
         <v>0.375</v>
@@ -15772,25 +15772,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01492537313432836</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D247">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="E247">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F247">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>444</v>
@@ -15822,28 +15822,28 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01470588235294118</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E248">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F248">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K248">
         <v>0.3658536585365854</v>
@@ -15872,25 +15872,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01438848920863309</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="E249">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H249">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>445</v>
@@ -15922,25 +15922,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0136986301369863</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E250">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F250">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>446</v>
@@ -15972,25 +15972,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0131578947368421</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>447</v>
@@ -16022,28 +16022,28 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0131578947368421</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E252">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F252">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K252">
         <v>0.36</v>
@@ -16072,28 +16072,28 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01234567901234568</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E253">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F253">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K253">
         <v>0.36</v>
@@ -16122,28 +16122,28 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01176470588235294</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E254">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F254">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K254">
         <v>0.3578947368421053</v>
@@ -16172,25 +16172,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01123595505617977</v>
+        <v>0.00974025974025974</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D255">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="E255">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F255">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>88</v>
+        <v>305</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>448</v>
@@ -16222,25 +16222,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01052631578947368</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E256">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F256">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>449</v>
@@ -16272,25 +16272,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.00974025974025974</v>
+        <v>0.009584664536741214</v>
       </c>
       <c r="C257">
         <v>3</v>
       </c>
       <c r="D257">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="E257">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="F257">
-        <v>0.03000000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>450</v>
@@ -16322,28 +16322,28 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.009615384615384616</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E258">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F258">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K258">
         <v>0.3478260869565217</v>
@@ -16372,28 +16372,28 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.009584664536741214</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
         <v>3</v>
       </c>
-      <c r="D259">
-        <v>17</v>
-      </c>
       <c r="E259">
-        <v>0.82</v>
+        <v>0.67</v>
       </c>
       <c r="F259">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>310</v>
+        <v>106</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K259">
         <v>0.3333333333333333</v>
@@ -16422,25 +16422,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.009433962264150943</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E260">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="F260">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>451</v>
@@ -16472,25 +16472,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.009345794392523364</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E261">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F261">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>452</v>
@@ -16522,25 +16522,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.008333333333333333</v>
+        <v>0.007772020725388601</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D262">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E262">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F262">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>119</v>
+        <v>383</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>453</v>
@@ -16572,25 +16572,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.008264462809917356</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E263">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="F263">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>73</v>
@@ -16622,28 +16622,28 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.007772020725388601</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="C264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E264">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F264">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>383</v>
+        <v>134</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K264">
         <v>0.3333333333333333</v>
@@ -16672,25 +16672,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.007518796992481203</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E265">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="F265">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>454</v>
@@ -16722,25 +16722,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.007407407407407408</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E266">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F266">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H266">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>455</v>
@@ -16772,25 +16772,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.007092198581560284</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E267">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F267">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>456</v>
@@ -16822,25 +16822,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.006711409395973154</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F268">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>457</v>
@@ -16872,25 +16872,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.006289308176100629</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E269">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F269">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>99</v>
@@ -16922,25 +16922,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.006289308176100629</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E270">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F270">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>458</v>
@@ -16972,25 +16972,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.005917159763313609</v>
+        <v>0.003575685339690107</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D271">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="E271">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F271">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>168</v>
+        <v>836</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>459</v>
@@ -17022,25 +17022,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.005780346820809248</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E272">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F272">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>172</v>
+        <v>291</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>460</v>
@@ -17072,25 +17072,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.003575685339690107</v>
+        <v>0.003115264797507788</v>
       </c>
       <c r="C273">
         <v>3</v>
       </c>
       <c r="D273">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E273">
-        <v>0.95</v>
+        <v>0.62</v>
       </c>
       <c r="F273">
-        <v>0.05000000000000004</v>
+        <v>0.38</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>836</v>
+        <v>960</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>461</v>
@@ -17122,25 +17122,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.003424657534246575</v>
+        <v>0.002793296089385475</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E274">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F274">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>462</v>
@@ -17172,25 +17172,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.003115264797507788</v>
+        <v>0.002403846153846154</v>
       </c>
       <c r="C275">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D275">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E275">
-        <v>0.62</v>
+        <v>0.95</v>
       </c>
       <c r="F275">
-        <v>0.38</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>960</v>
+        <v>830</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>463</v>
@@ -17222,25 +17222,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.002793296089385475</v>
+        <v>0.001851851851851852</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E276">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F276">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>357</v>
+        <v>539</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>464</v>
@@ -17272,13 +17272,13 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.002403846153846154</v>
+        <v>0.001828153564899452</v>
       </c>
       <c r="C277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D277">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E277">
         <v>0.95</v>
@@ -17290,7 +17290,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>830</v>
+        <v>546</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>465</v>
@@ -17322,25 +17322,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.001851851851851852</v>
+        <v>0.001579778830963665</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E278">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F278">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>539</v>
+        <v>632</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>466</v>
@@ -17372,28 +17372,28 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.001828153564899452</v>
+        <v>0.001465559355153884</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D279">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="E279">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F279">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>546</v>
+        <v>2044</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K279">
         <v>0.3333333333333333</v>
@@ -17422,25 +17422,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.001579778830963665</v>
+        <v>0.001340482573726542</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D280">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="E280">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F280">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>632</v>
+        <v>2980</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>467</v>
@@ -17472,25 +17472,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.001465559355153884</v>
+        <v>0.001200480192076831</v>
       </c>
       <c r="C281">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="E281">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F281">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>2044</v>
+        <v>832</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>468</v>
@@ -17522,13 +17522,13 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.001340482573726542</v>
+        <v>0.0006404098623118795</v>
       </c>
       <c r="C282">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D282">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E282">
         <v>0.97</v>
@@ -17540,7 +17540,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>2980</v>
+        <v>3121</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>469</v>
@@ -17568,30 +17568,6 @@
       </c>
     </row>
     <row r="283" spans="1:17">
-      <c r="A283" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B283">
-        <v>0.001200480192076831</v>
-      </c>
-      <c r="C283">
-        <v>1</v>
-      </c>
-      <c r="D283">
-        <v>69</v>
-      </c>
-      <c r="E283">
-        <v>0.99</v>
-      </c>
-      <c r="F283">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="G283" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283">
-        <v>832</v>
-      </c>
       <c r="J283" s="1" t="s">
         <v>470</v>
       </c>
@@ -17618,30 +17594,6 @@
       </c>
     </row>
     <row r="284" spans="1:17">
-      <c r="A284" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B284">
-        <v>0.0006404098623118795</v>
-      </c>
-      <c r="C284">
-        <v>2</v>
-      </c>
-      <c r="D284">
-        <v>80</v>
-      </c>
-      <c r="E284">
-        <v>0.97</v>
-      </c>
-      <c r="F284">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G284" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284">
-        <v>3121</v>
-      </c>
       <c r="J284" s="1" t="s">
         <v>471</v>
       </c>
@@ -17695,7 +17647,7 @@
     </row>
     <row r="286" spans="1:17">
       <c r="J286" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K286">
         <v>0.3333333333333333</v>
@@ -17721,7 +17673,7 @@
     </row>
     <row r="287" spans="1:17">
       <c r="J287" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K287">
         <v>0.3269230769230769</v>
@@ -17825,7 +17777,7 @@
     </row>
     <row r="291" spans="10:17">
       <c r="J291" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K291">
         <v>0.3076923076923077</v>
@@ -17929,7 +17881,7 @@
     </row>
     <row r="295" spans="10:17">
       <c r="J295" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K295">
         <v>0.3</v>
@@ -18163,7 +18115,7 @@
     </row>
     <row r="304" spans="10:17">
       <c r="J304" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K304">
         <v>0.2904761904761905</v>
@@ -18189,7 +18141,7 @@
     </row>
     <row r="305" spans="10:17">
       <c r="J305" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K305">
         <v>0.2857142857142857</v>
@@ -18631,7 +18583,7 @@
     </row>
     <row r="322" spans="10:17">
       <c r="J322" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K322">
         <v>0.2727272727272727</v>
@@ -18709,7 +18661,7 @@
     </row>
     <row r="325" spans="10:17">
       <c r="J325" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K325">
         <v>0.2678571428571428</v>
@@ -18761,7 +18713,7 @@
     </row>
     <row r="327" spans="10:17">
       <c r="J327" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K327">
         <v>0.2650602409638554</v>
@@ -19411,7 +19363,7 @@
     </row>
     <row r="352" spans="10:17">
       <c r="J352" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K352">
         <v>0.2340425531914894</v>
@@ -19437,7 +19389,7 @@
     </row>
     <row r="353" spans="10:17">
       <c r="J353" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K353">
         <v>0.2340425531914894</v>
@@ -19489,7 +19441,7 @@
     </row>
     <row r="355" spans="10:17">
       <c r="J355" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K355">
         <v>0.2307692307692308</v>
@@ -19541,7 +19493,7 @@
     </row>
     <row r="357" spans="10:17">
       <c r="J357" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K357">
         <v>0.2307692307692308</v>
@@ -20477,7 +20429,7 @@
     </row>
     <row r="393" spans="10:17">
       <c r="J393" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K393">
         <v>0.1851851851851852</v>
@@ -20529,7 +20481,7 @@
     </row>
     <row r="395" spans="10:17">
       <c r="J395" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K395">
         <v>0.1818181818181818</v>
@@ -20607,7 +20559,7 @@
     </row>
     <row r="398" spans="10:17">
       <c r="J398" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K398">
         <v>0.1818181818181818</v>
@@ -21829,7 +21781,7 @@
     </row>
     <row r="445" spans="10:17">
       <c r="J445" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K445">
         <v>0.1578947368421053</v>
@@ -21907,7 +21859,7 @@
     </row>
     <row r="448" spans="10:17">
       <c r="J448" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K448">
         <v>0.1538461538461539</v>
@@ -22011,7 +21963,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K452">
         <v>0.1538461538461539</v>
@@ -22115,7 +22067,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K456">
         <v>0.1518987341772152</v>
@@ -22245,7 +22197,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K461">
         <v>0.1477272727272727</v>
@@ -22557,7 +22509,7 @@
     </row>
     <row r="473" spans="10:17">
       <c r="J473" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K473">
         <v>0.1428571428571428</v>
@@ -22583,7 +22535,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K474">
         <v>0.1428571428571428</v>
@@ -22973,7 +22925,7 @@
     </row>
     <row r="489" spans="10:17">
       <c r="J489" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K489">
         <v>0.1428571428571428</v>
@@ -23441,7 +23393,7 @@
     </row>
     <row r="507" spans="10:17">
       <c r="J507" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K507">
         <v>0.1290322580645161</v>
@@ -23467,7 +23419,7 @@
     </row>
     <row r="508" spans="10:17">
       <c r="J508" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K508">
         <v>0.1271186440677966</v>
@@ -24325,7 +24277,7 @@
     </row>
     <row r="541" spans="10:17">
       <c r="J541" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K541">
         <v>0.125</v>
@@ -24507,7 +24459,7 @@
     </row>
     <row r="548" spans="10:17">
       <c r="J548" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K548">
         <v>0.1228070175438596</v>
@@ -24559,7 +24511,7 @@
     </row>
     <row r="550" spans="10:17">
       <c r="J550" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K550">
         <v>0.12</v>
@@ -24767,7 +24719,7 @@
     </row>
     <row r="558" spans="10:17">
       <c r="J558" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K558">
         <v>0.1129032258064516</v>
@@ -25209,7 +25161,7 @@
     </row>
     <row r="575" spans="10:17">
       <c r="J575" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K575">
         <v>0.1060606060606061</v>
@@ -25235,7 +25187,7 @@
     </row>
     <row r="576" spans="10:17">
       <c r="J576" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K576">
         <v>0.1052631578947368</v>
@@ -25261,7 +25213,7 @@
     </row>
     <row r="577" spans="10:17">
       <c r="J577" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K577">
         <v>0.1052631578947368</v>
@@ -25469,7 +25421,7 @@
     </row>
     <row r="585" spans="10:17">
       <c r="J585" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K585">
         <v>0.1020408163265306</v>
@@ -25781,7 +25733,7 @@
     </row>
     <row r="597" spans="10:17">
       <c r="J597" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K597">
         <v>0.1</v>
@@ -26119,7 +26071,7 @@
     </row>
     <row r="610" spans="10:17">
       <c r="J610" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K610">
         <v>0.09090909090909091</v>
@@ -26535,7 +26487,7 @@
     </row>
     <row r="626" spans="10:17">
       <c r="J626" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K626">
         <v>0.08333333333333333</v>
@@ -26951,7 +26903,7 @@
     </row>
     <row r="642" spans="10:17">
       <c r="J642" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K642">
         <v>0.07894736842105263</v>
@@ -27055,7 +27007,7 @@
     </row>
     <row r="646" spans="10:17">
       <c r="J646" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K646">
         <v>0.07692307692307693</v>
@@ -27185,7 +27137,7 @@
     </row>
     <row r="651" spans="10:17">
       <c r="J651" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K651">
         <v>0.07692307692307693</v>
@@ -27211,7 +27163,7 @@
     </row>
     <row r="652" spans="10:17">
       <c r="J652" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K652">
         <v>0.07692307692307693</v>
@@ -27315,7 +27267,7 @@
     </row>
     <row r="656" spans="10:17">
       <c r="J656" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K656">
         <v>0.07555555555555556</v>
@@ -27445,7 +27397,7 @@
     </row>
     <row r="661" spans="10:17">
       <c r="J661" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K661">
         <v>0.07263922518159806</v>
@@ -27627,7 +27579,7 @@
     </row>
     <row r="668" spans="10:17">
       <c r="J668" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K668">
         <v>0.07142857142857142</v>
@@ -27835,7 +27787,7 @@
     </row>
     <row r="676" spans="10:17">
       <c r="J676" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K676">
         <v>0.07142857142857142</v>
@@ -28017,7 +27969,7 @@
     </row>
     <row r="683" spans="10:17">
       <c r="J683" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K683">
         <v>0.06666666666666667</v>
@@ -28173,7 +28125,7 @@
     </row>
     <row r="689" spans="10:17">
       <c r="J689" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K689">
         <v>0.06521739130434782</v>
@@ -28381,7 +28333,7 @@
     </row>
     <row r="697" spans="10:17">
       <c r="J697" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K697">
         <v>0.06172839506172839</v>
@@ -28693,7 +28645,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K709">
         <v>0.05882352941176471</v>
@@ -28953,7 +28905,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K719">
         <v>0.05633802816901409</v>
@@ -29161,7 +29113,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K727">
         <v>0.05555555555555555</v>
@@ -29213,7 +29165,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K729">
         <v>0.05405405405405406</v>
@@ -29343,7 +29295,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K734">
         <v>0.05263157894736842</v>
@@ -29629,7 +29581,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K745">
         <v>0.05128205128205128</v>
@@ -29967,7 +29919,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K758">
         <v>0.04761904761904762</v>
@@ -30201,7 +30153,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K767">
         <v>0.04545454545454546</v>
@@ -30383,7 +30335,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K774">
         <v>0.04485981308411215</v>
@@ -30461,7 +30413,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K777">
         <v>0.04347826086956522</v>
@@ -30591,7 +30543,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K782">
         <v>0.04320987654320987</v>
@@ -30617,7 +30569,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K783">
         <v>0.04242424242424243</v>
@@ -30695,7 +30647,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K786">
         <v>0.0410958904109589</v>
@@ -30747,7 +30699,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K788">
         <v>0.04081632653061224</v>
@@ -30773,7 +30725,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K789">
         <v>0.04046242774566474</v>
@@ -30903,7 +30855,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K794">
         <v>0.03963905897518531</v>
@@ -30929,7 +30881,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K795">
         <v>0.03846153846153846</v>
@@ -31397,7 +31349,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K813">
         <v>0.03571428571428571</v>
@@ -31579,7 +31531,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K820">
         <v>0.03571428571428571</v>
@@ -31631,7 +31583,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K822">
         <v>0.0353356890459364</v>
@@ -31839,7 +31791,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K830">
         <v>0.03333333333333333</v>
@@ -32203,7 +32155,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K844">
         <v>0.03067484662576687</v>
@@ -32645,7 +32597,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K861">
         <v>0.02619414483821263</v>
@@ -32749,7 +32701,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K865">
         <v>0.025</v>
@@ -32801,7 +32753,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K867">
         <v>0.02438261956861519</v>
@@ -33581,7 +33533,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K897">
         <v>0.02</v>
@@ -33633,7 +33585,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K899">
         <v>0.01851851851851852</v>
@@ -33711,7 +33663,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K902">
         <v>0.01818181818181818</v>
@@ -33737,7 +33689,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K903">
         <v>0.01818181818181818</v>
@@ -33815,7 +33767,7 @@
     </row>
     <row r="906" spans="10:17">
       <c r="J906" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K906">
         <v>0.01724137931034483</v>
@@ -34049,7 +34001,7 @@
     </row>
     <row r="915" spans="10:17">
       <c r="J915" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K915">
         <v>0.01538461538461539</v>
@@ -34179,7 +34131,7 @@
     </row>
     <row r="920" spans="10:17">
       <c r="J920" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K920">
         <v>0.0136986301369863</v>
@@ -34283,7 +34235,7 @@
     </row>
     <row r="924" spans="10:17">
       <c r="J924" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K924">
         <v>0.01234567901234568</v>
@@ -34387,7 +34339,7 @@
     </row>
     <row r="928" spans="10:17">
       <c r="J928" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K928">
         <v>0.01176470588235294</v>
@@ -34439,7 +34391,7 @@
     </row>
     <row r="930" spans="10:17">
       <c r="J930" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K930">
         <v>0.01052631578947368</v>
@@ -34543,7 +34495,7 @@
     </row>
     <row r="934" spans="10:17">
       <c r="J934" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K934">
         <v>0.009191176470588236</v>
@@ -34777,7 +34729,7 @@
     </row>
     <row r="943" spans="10:17">
       <c r="J943" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K943">
         <v>0.005571030640668524</v>
@@ -34829,7 +34781,7 @@
     </row>
     <row r="945" spans="10:17">
       <c r="J945" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K945">
         <v>0.005181347150259068</v>
@@ -34907,7 +34859,7 @@
     </row>
     <row r="948" spans="10:17">
       <c r="J948" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K948">
         <v>0.003424657534246575</v>
